--- a/model_analysis.xlsx
+++ b/model_analysis.xlsx
@@ -36,12 +36,6 @@
     <t>lam</t>
   </si>
   <si>
-    <t>1500, 1500, 1500</t>
-  </si>
-  <si>
-    <t>500, 500, 500</t>
-  </si>
-  <si>
     <t>min_valid (mlogloss)</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>kaggle mlogloss</t>
+  </si>
+  <si>
+    <t>100 x 3</t>
+  </si>
+  <si>
+    <t>after changing valid distribution (uniform), instead of as same sa train</t>
   </si>
 </sst>
 </file>
@@ -105,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,38 +414,32 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>500</v>
-      </c>
-      <c r="B2">
-        <v>0.25</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>0.61199999999999999</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -451,15 +448,15 @@
         <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0.57699999999999996</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4">
+        <v>500</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -467,10 +464,16 @@
       <c r="C4">
         <v>0.01</v>
       </c>
+      <c r="D4">
+        <v>0.84</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>750</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -478,6 +481,49 @@
       <c r="C5">
         <v>0.01</v>
       </c>
+      <c r="D5">
+        <v>0.871</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1500</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.91</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>1.02</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -486,35 +532,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -534,7 +580,25 @@
         <v>0.51983000000000001</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:K4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>